--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Sema5a-Met.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Sema5a-Met.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,16 +82,16 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Sema5a</t>
+  </si>
+  <si>
+    <t>Met</t>
+  </si>
+  <si>
     <t>Inflammatory-Mac</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Sema5a</t>
-  </si>
-  <si>
-    <t>Met</t>
   </si>
   <si>
     <t>Neutrophils</t>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T25"/>
+  <dimension ref="A1:T19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,10 +528,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.3941139999999999</v>
+        <v>1.199869666666667</v>
       </c>
       <c r="H2">
-        <v>1.182342</v>
+        <v>3.599609</v>
       </c>
       <c r="I2">
-        <v>0.03840798249544394</v>
+        <v>0.1552869853429832</v>
       </c>
       <c r="J2">
-        <v>0.03840798249544394</v>
+        <v>0.1552869853429831</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.940154666666667</v>
+        <v>3.890652666666667</v>
       </c>
       <c r="N2">
-        <v>5.820464</v>
+        <v>11.671958</v>
       </c>
       <c r="O2">
-        <v>0.04123024092854888</v>
+        <v>0.06476544661321246</v>
       </c>
       <c r="P2">
-        <v>0.04123024092854888</v>
+        <v>0.06476544661321246</v>
       </c>
       <c r="Q2">
-        <v>0.7646421162986665</v>
+        <v>4.668276118269111</v>
       </c>
       <c r="R2">
-        <v>6.881779046687999</v>
+        <v>42.014485064422</v>
       </c>
       <c r="S2">
-        <v>0.001583570371866642</v>
+        <v>0.01005723095895768</v>
       </c>
       <c r="T2">
-        <v>0.001583570371866642</v>
+        <v>0.01005723095895768</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,10 +590,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.3941139999999999</v>
+        <v>1.199869666666667</v>
       </c>
       <c r="H3">
-        <v>1.182342</v>
+        <v>3.599609</v>
       </c>
       <c r="I3">
-        <v>0.03840798249544394</v>
+        <v>0.1552869853429832</v>
       </c>
       <c r="J3">
-        <v>0.03840798249544394</v>
+        <v>0.1552869853429831</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>5.352974</v>
       </c>
       <c r="O3">
-        <v>0.03791869646548077</v>
+        <v>0.02970262160118417</v>
       </c>
       <c r="P3">
-        <v>0.03791869646548075</v>
+        <v>0.02970262160118416</v>
       </c>
       <c r="Q3">
-        <v>0.7032273316786665</v>
+        <v>2.140957043018444</v>
       </c>
       <c r="R3">
-        <v>6.329045985107999</v>
+        <v>19.268613387166</v>
       </c>
       <c r="S3">
-        <v>0.001456380630096237</v>
+        <v>0.004612430565231261</v>
       </c>
       <c r="T3">
-        <v>0.001456380630096237</v>
+        <v>0.004612430565231259</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,14 +652,14 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
         <v>25</v>
       </c>
-      <c r="D4" t="s">
-        <v>22</v>
-      </c>
       <c r="E4">
         <v>3</v>
       </c>
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.3941139999999999</v>
+        <v>1.199869666666667</v>
       </c>
       <c r="H4">
-        <v>1.182342</v>
+        <v>3.599609</v>
       </c>
       <c r="I4">
-        <v>0.03840798249544394</v>
+        <v>0.1552869853429832</v>
       </c>
       <c r="J4">
-        <v>0.03840798249544394</v>
+        <v>0.1552869853429831</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>9.084400666666667</v>
+        <v>14.15274033333333</v>
       </c>
       <c r="N4">
-        <v>27.253202</v>
+        <v>42.458221</v>
       </c>
       <c r="O4">
-        <v>0.1930526646216539</v>
+        <v>0.2355924897491472</v>
       </c>
       <c r="P4">
-        <v>0.1930526646216539</v>
+        <v>0.2355924897491471</v>
       </c>
       <c r="Q4">
-        <v>3.580289484342666</v>
+        <v>16.98144382617656</v>
       </c>
       <c r="R4">
-        <v>32.222605359084</v>
+        <v>152.832994435589</v>
       </c>
       <c r="S4">
-        <v>0.007414763363487293</v>
+        <v>0.03658444750259273</v>
       </c>
       <c r="T4">
-        <v>0.007414763363487292</v>
+        <v>0.03658444750259272</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,13 +714,13 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.3941139999999999</v>
+        <v>1.199869666666667</v>
       </c>
       <c r="H5">
-        <v>1.182342</v>
+        <v>3.599609</v>
       </c>
       <c r="I5">
-        <v>0.03840798249544394</v>
+        <v>0.1552869853429832</v>
       </c>
       <c r="J5">
-        <v>0.03840798249544394</v>
+        <v>0.1552869853429831</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>29.348104</v>
+        <v>37.09331533333333</v>
       </c>
       <c r="N5">
-        <v>88.04431199999999</v>
+        <v>111.279946</v>
       </c>
       <c r="O5">
-        <v>0.6236767714993731</v>
+        <v>0.6174709848839556</v>
       </c>
       <c r="P5">
-        <v>0.6236767714993731</v>
+        <v>0.6174709848839556</v>
       </c>
       <c r="Q5">
-        <v>11.56649865985599</v>
+        <v>44.50714390456822</v>
       </c>
       <c r="R5">
-        <v>104.098487938704</v>
+        <v>400.5642951411139</v>
       </c>
       <c r="S5">
-        <v>0.02395416652256291</v>
+        <v>0.09588520777939219</v>
       </c>
       <c r="T5">
-        <v>0.02395416652256291</v>
+        <v>0.09588520777939216</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,10 +776,10 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
         <v>26</v>
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.3941139999999999</v>
+        <v>1.199869666666667</v>
       </c>
       <c r="H6">
-        <v>1.182342</v>
+        <v>3.599609</v>
       </c>
       <c r="I6">
-        <v>0.03840798249544394</v>
+        <v>0.1552869853429832</v>
       </c>
       <c r="J6">
-        <v>0.03840798249544394</v>
+        <v>0.1552869853429831</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.013948333333333</v>
+        <v>1.368174333333333</v>
       </c>
       <c r="N6">
-        <v>3.041845</v>
+        <v>4.104523</v>
       </c>
       <c r="O6">
-        <v>0.02154742340426842</v>
+        <v>0.02277520748697028</v>
       </c>
       <c r="P6">
-        <v>0.02154742340426842</v>
+        <v>0.02277520748697028</v>
       </c>
       <c r="Q6">
-        <v>0.3996112334433333</v>
+        <v>1.641630881278556</v>
       </c>
       <c r="R6">
-        <v>3.59650110099</v>
+        <v>14.774677931507</v>
       </c>
       <c r="S6">
-        <v>0.0008275930609330606</v>
+        <v>0.003536693311212554</v>
       </c>
       <c r="T6">
-        <v>0.0008275930609330603</v>
+        <v>0.003536693311212553</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,10 +838,10 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
         <v>27</v>
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.3941139999999999</v>
+        <v>1.199869666666667</v>
       </c>
       <c r="H7">
-        <v>1.182342</v>
+        <v>3.599609</v>
       </c>
       <c r="I7">
-        <v>0.03840798249544394</v>
+        <v>0.1552869853429832</v>
       </c>
       <c r="J7">
-        <v>0.03840798249544394</v>
+        <v>0.1552869853429831</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>3.885660666666666</v>
+        <v>1.783761666666667</v>
       </c>
       <c r="N7">
-        <v>11.656982</v>
+        <v>5.351285</v>
       </c>
       <c r="O7">
-        <v>0.08257420308067495</v>
+        <v>0.02969324966553038</v>
       </c>
       <c r="P7">
-        <v>0.08257420308067492</v>
+        <v>0.02969324966553038</v>
       </c>
       <c r="Q7">
-        <v>1.531393267982666</v>
+        <v>2.140281516396111</v>
       </c>
       <c r="R7">
-        <v>13.782539411844</v>
+        <v>19.262533647565</v>
       </c>
       <c r="S7">
-        <v>0.003171508546497796</v>
+        <v>0.004610975225596755</v>
       </c>
       <c r="T7">
-        <v>0.003171508546497795</v>
+        <v>0.004610975225596754</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,10 +900,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
@@ -921,10 +921,10 @@
         <v>10.630371</v>
       </c>
       <c r="I8">
-        <v>0.3453240291625223</v>
+        <v>0.4585937710644332</v>
       </c>
       <c r="J8">
-        <v>0.3453240291625223</v>
+        <v>0.4585937710644332</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.940154666666667</v>
+        <v>3.890652666666667</v>
       </c>
       <c r="N8">
-        <v>5.820464</v>
+        <v>11.671958</v>
       </c>
       <c r="O8">
-        <v>0.04123024092854888</v>
+        <v>0.06476544661321246</v>
       </c>
       <c r="P8">
-        <v>0.04123024092854888</v>
+        <v>0.06476544661321246</v>
       </c>
       <c r="Q8">
-        <v>6.874854634682667</v>
+        <v>13.78636042626867</v>
       </c>
       <c r="R8">
-        <v>61.873691712144</v>
+        <v>124.077243836418</v>
       </c>
       <c r="S8">
-        <v>0.01423779292078804</v>
+        <v>0.02970103039702533</v>
       </c>
       <c r="T8">
-        <v>0.01423779292078803</v>
+        <v>0.02970103039702532</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,10 +962,10 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
@@ -983,10 +983,10 @@
         <v>10.630371</v>
       </c>
       <c r="I9">
-        <v>0.3453240291625223</v>
+        <v>0.4585937710644332</v>
       </c>
       <c r="J9">
-        <v>0.3453240291625223</v>
+        <v>0.4585937710644332</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>5.352974</v>
       </c>
       <c r="O9">
-        <v>0.03791869646548077</v>
+        <v>0.02970262160118417</v>
       </c>
       <c r="P9">
-        <v>0.03791869646548075</v>
+        <v>0.02970262160118416</v>
       </c>
       <c r="Q9">
         <v>6.322677730372666</v>
@@ -1013,10 +1013,10 @@
         <v>56.904099573354</v>
       </c>
       <c r="S9">
-        <v>0.01309423704405051</v>
+        <v>0.01362143725058694</v>
       </c>
       <c r="T9">
-        <v>0.01309423704405051</v>
+        <v>0.01362143725058694</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,13 +1024,13 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
         <v>25</v>
-      </c>
-      <c r="D10" t="s">
-        <v>22</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1045,10 +1045,10 @@
         <v>10.630371</v>
       </c>
       <c r="I10">
-        <v>0.3453240291625223</v>
+        <v>0.4585937710644332</v>
       </c>
       <c r="J10">
-        <v>0.3453240291625223</v>
+        <v>0.4585937710644332</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>9.084400666666667</v>
+        <v>14.15274033333333</v>
       </c>
       <c r="N10">
-        <v>27.253202</v>
+        <v>42.458221</v>
       </c>
       <c r="O10">
-        <v>0.1930526646216539</v>
+        <v>0.2355924897491472</v>
       </c>
       <c r="P10">
-        <v>0.1930526646216539</v>
+        <v>0.2355924897491471</v>
       </c>
       <c r="Q10">
-        <v>32.19018313310467</v>
+        <v>50.14962680333234</v>
       </c>
       <c r="R10">
-        <v>289.711648197942</v>
+        <v>451.346641229991</v>
       </c>
       <c r="S10">
-        <v>0.06666572398771066</v>
+        <v>0.1080412483085202</v>
       </c>
       <c r="T10">
-        <v>0.06666572398771065</v>
+        <v>0.1080412483085202</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,13 +1086,13 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1107,10 +1107,10 @@
         <v>10.630371</v>
       </c>
       <c r="I11">
-        <v>0.3453240291625223</v>
+        <v>0.4585937710644332</v>
       </c>
       <c r="J11">
-        <v>0.3453240291625223</v>
+        <v>0.4585937710644332</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>29.348104</v>
+        <v>37.09331533333333</v>
       </c>
       <c r="N11">
-        <v>88.04431199999999</v>
+        <v>111.279946</v>
       </c>
       <c r="O11">
-        <v>0.6236767714993731</v>
+        <v>0.6174709848839556</v>
       </c>
       <c r="P11">
-        <v>0.6236767714993731</v>
+        <v>0.6174709848839556</v>
       </c>
       <c r="Q11">
-        <v>103.993744555528</v>
+        <v>131.4385678711073</v>
       </c>
       <c r="R11">
-        <v>935.943700999752</v>
+        <v>1182.947110839966</v>
       </c>
       <c r="S11">
-        <v>0.2153705756292373</v>
+        <v>0.2831683474808028</v>
       </c>
       <c r="T11">
-        <v>0.2153705756292373</v>
+        <v>0.2831683474808028</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,10 +1148,10 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D12" t="s">
         <v>26</v>
@@ -1169,10 +1169,10 @@
         <v>10.630371</v>
       </c>
       <c r="I12">
-        <v>0.3453240291625223</v>
+        <v>0.4585937710644332</v>
       </c>
       <c r="J12">
-        <v>0.3453240291625223</v>
+        <v>0.4585937710644332</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.013948333333333</v>
+        <v>1.368174333333333</v>
       </c>
       <c r="N12">
-        <v>3.041845</v>
+        <v>4.104523</v>
       </c>
       <c r="O12">
-        <v>0.02154742340426842</v>
+        <v>0.02277520748697028</v>
       </c>
       <c r="P12">
-        <v>0.02154742340426842</v>
+        <v>0.02277520748697028</v>
       </c>
       <c r="Q12">
-        <v>3.592882319388334</v>
+        <v>4.848066918670334</v>
       </c>
       <c r="R12">
-        <v>32.335940874495</v>
+        <v>43.632602268033</v>
       </c>
       <c r="S12">
-        <v>0.007440843068032805</v>
+        <v>0.01044456828822461</v>
       </c>
       <c r="T12">
-        <v>0.007440843068032802</v>
+        <v>0.01044456828822461</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,10 +1210,10 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D13" t="s">
         <v>27</v>
@@ -1231,10 +1231,10 @@
         <v>10.630371</v>
       </c>
       <c r="I13">
-        <v>0.3453240291625223</v>
+        <v>0.4585937710644332</v>
       </c>
       <c r="J13">
-        <v>0.3453240291625223</v>
+        <v>0.4585937710644332</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>3.885660666666666</v>
+        <v>1.783761666666667</v>
       </c>
       <c r="N13">
-        <v>11.656982</v>
+        <v>5.351285</v>
       </c>
       <c r="O13">
-        <v>0.08257420308067495</v>
+        <v>0.02969324966553038</v>
       </c>
       <c r="P13">
-        <v>0.08257420308067492</v>
+        <v>0.02969324966553038</v>
       </c>
       <c r="Q13">
-        <v>13.76867148892467</v>
+        <v>6.320682764081667</v>
       </c>
       <c r="R13">
-        <v>123.918043400322</v>
+        <v>56.886144876735</v>
       </c>
       <c r="S13">
-        <v>0.02851485651270304</v>
+        <v>0.0136171393392733</v>
       </c>
       <c r="T13">
-        <v>0.02851485651270303</v>
+        <v>0.01361713933927329</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,31 +1272,31 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>0.01572166666666667</v>
+        <v>2.983461666666667</v>
       </c>
       <c r="H14">
-        <v>0.047165</v>
+        <v>8.950385000000001</v>
       </c>
       <c r="I14">
-        <v>0.001532139173265953</v>
+        <v>0.3861192435925836</v>
       </c>
       <c r="J14">
-        <v>0.001532139173265953</v>
+        <v>0.3861192435925836</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>1.940154666666667</v>
+        <v>3.890652666666667</v>
       </c>
       <c r="N14">
-        <v>5.820464</v>
+        <v>11.671958</v>
       </c>
       <c r="O14">
-        <v>0.04123024092854888</v>
+        <v>0.06476544661321246</v>
       </c>
       <c r="P14">
-        <v>0.04123024092854888</v>
+        <v>0.06476544661321246</v>
       </c>
       <c r="Q14">
-        <v>0.03050246495111111</v>
+        <v>11.60761308931444</v>
       </c>
       <c r="R14">
-        <v>0.27452218456</v>
+        <v>104.46851780383</v>
       </c>
       <c r="S14">
-        <v>6.317046724982295E-05</v>
+        <v>0.02500718525722945</v>
       </c>
       <c r="T14">
-        <v>6.317046724982295E-05</v>
+        <v>0.02500718525722945</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,31 +1334,31 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>0.01572166666666667</v>
+        <v>2.983461666666667</v>
       </c>
       <c r="H15">
-        <v>0.047165</v>
+        <v>8.950385000000001</v>
       </c>
       <c r="I15">
-        <v>0.001532139173265953</v>
+        <v>0.3861192435925836</v>
       </c>
       <c r="J15">
-        <v>0.001532139173265953</v>
+        <v>0.3861192435925836</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>5.352974</v>
       </c>
       <c r="O15">
-        <v>0.03791869646548077</v>
+        <v>0.02970262160118417</v>
       </c>
       <c r="P15">
-        <v>0.03791869646548075</v>
+        <v>0.02970262160118416</v>
       </c>
       <c r="Q15">
-        <v>0.02805255763444444</v>
+        <v>5.323464243887778</v>
       </c>
       <c r="R15">
-        <v>0.25247301871</v>
+        <v>47.91117819499</v>
       </c>
       <c r="S15">
-        <v>5.809672025394432E-05</v>
+        <v>0.01146875378536597</v>
       </c>
       <c r="T15">
-        <v>5.80967202539443E-05</v>
+        <v>0.01146875378536596</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,31 +1396,31 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" t="s">
         <v>25</v>
       </c>
-      <c r="D16" t="s">
-        <v>22</v>
-      </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>0.01572166666666667</v>
+        <v>2.983461666666667</v>
       </c>
       <c r="H16">
-        <v>0.047165</v>
+        <v>8.950385000000001</v>
       </c>
       <c r="I16">
-        <v>0.001532139173265953</v>
+        <v>0.3861192435925836</v>
       </c>
       <c r="J16">
-        <v>0.001532139173265953</v>
+        <v>0.3861192435925836</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>9.084400666666667</v>
+        <v>14.15274033333333</v>
       </c>
       <c r="N16">
-        <v>27.253202</v>
+        <v>42.458221</v>
       </c>
       <c r="O16">
-        <v>0.1930526646216539</v>
+        <v>0.2355924897491472</v>
       </c>
       <c r="P16">
-        <v>0.1930526646216539</v>
+        <v>0.2355924897491471</v>
       </c>
       <c r="Q16">
-        <v>0.1428219191477778</v>
+        <v>42.22415826278723</v>
       </c>
       <c r="R16">
-        <v>1.28539727233</v>
+        <v>380.017424365085</v>
       </c>
       <c r="S16">
-        <v>0.0002957835499702101</v>
+        <v>0.09096679393803422</v>
       </c>
       <c r="T16">
-        <v>0.0002957835499702101</v>
+        <v>0.09096679393803421</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,31 +1458,31 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G17">
-        <v>0.01572166666666667</v>
+        <v>2.983461666666667</v>
       </c>
       <c r="H17">
-        <v>0.047165</v>
+        <v>8.950385000000001</v>
       </c>
       <c r="I17">
-        <v>0.001532139173265953</v>
+        <v>0.3861192435925836</v>
       </c>
       <c r="J17">
-        <v>0.001532139173265953</v>
+        <v>0.3861192435925836</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>29.348104</v>
+        <v>37.09331533333333</v>
       </c>
       <c r="N17">
-        <v>88.04431199999999</v>
+        <v>111.279946</v>
       </c>
       <c r="O17">
-        <v>0.6236767714993731</v>
+        <v>0.6174709848839556</v>
       </c>
       <c r="P17">
-        <v>0.6236767714993731</v>
+        <v>0.6174709848839556</v>
       </c>
       <c r="Q17">
-        <v>0.4614011083866665</v>
+        <v>110.6664843865789</v>
       </c>
       <c r="R17">
-        <v>4.15260997548</v>
+        <v>995.9983594792101</v>
       </c>
       <c r="S17">
-        <v>0.0009555596130702282</v>
+        <v>0.2384174296237606</v>
       </c>
       <c r="T17">
-        <v>0.0009555596130702282</v>
+        <v>0.2384174296237606</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,31 +1520,31 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D18" t="s">
         <v>26</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G18">
-        <v>0.01572166666666667</v>
+        <v>2.983461666666667</v>
       </c>
       <c r="H18">
-        <v>0.047165</v>
+        <v>8.950385000000001</v>
       </c>
       <c r="I18">
-        <v>0.001532139173265953</v>
+        <v>0.3861192435925836</v>
       </c>
       <c r="J18">
-        <v>0.001532139173265953</v>
+        <v>0.3861192435925836</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>1.013948333333333</v>
+        <v>1.368174333333333</v>
       </c>
       <c r="N18">
-        <v>3.041845</v>
+        <v>4.104523</v>
       </c>
       <c r="O18">
-        <v>0.02154742340426842</v>
+        <v>0.02277520748697028</v>
       </c>
       <c r="P18">
-        <v>0.02154742340426842</v>
+        <v>0.02277520748697028</v>
       </c>
       <c r="Q18">
-        <v>0.01594095771388889</v>
+        <v>4.081895676817223</v>
       </c>
       <c r="R18">
-        <v>0.143468619425</v>
+        <v>36.73706109135501</v>
       </c>
       <c r="S18">
-        <v>3.301365148062727E-05</v>
+        <v>0.008793945887533112</v>
       </c>
       <c r="T18">
-        <v>3.301365148062726E-05</v>
+        <v>0.008793945887533112</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,31 +1582,31 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D19" t="s">
         <v>27</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G19">
-        <v>0.01572166666666667</v>
+        <v>2.983461666666667</v>
       </c>
       <c r="H19">
-        <v>0.047165</v>
+        <v>8.950385000000001</v>
       </c>
       <c r="I19">
-        <v>0.001532139173265953</v>
+        <v>0.3861192435925836</v>
       </c>
       <c r="J19">
-        <v>0.001532139173265953</v>
+        <v>0.3861192435925836</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,400 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>3.885660666666666</v>
+        <v>1.783761666666667</v>
       </c>
       <c r="N19">
-        <v>11.656982</v>
+        <v>5.351285</v>
       </c>
       <c r="O19">
-        <v>0.08257420308067495</v>
+        <v>0.02969324966553038</v>
       </c>
       <c r="P19">
-        <v>0.08257420308067492</v>
+        <v>0.02969324966553038</v>
       </c>
       <c r="Q19">
-        <v>0.0610890617811111</v>
+        <v>5.321784554969445</v>
       </c>
       <c r="R19">
-        <v>0.5498015560299999</v>
+        <v>47.896060994725</v>
       </c>
       <c r="S19">
-        <v>0.0001265151712411202</v>
+        <v>0.01146513510066033</v>
       </c>
       <c r="T19">
-        <v>0.0001265151712411202</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20">
-      <c r="A20" t="s">
-        <v>23</v>
-      </c>
-      <c r="B20" t="s">
-        <v>24</v>
-      </c>
-      <c r="C20" t="s">
-        <v>25</v>
-      </c>
-      <c r="D20" t="s">
-        <v>20</v>
-      </c>
-      <c r="E20">
-        <v>3</v>
-      </c>
-      <c r="F20">
-        <v>1</v>
-      </c>
-      <c r="G20">
-        <v>6.307959666666666</v>
-      </c>
-      <c r="H20">
-        <v>18.923879</v>
-      </c>
-      <c r="I20">
-        <v>0.6147358491687678</v>
-      </c>
-      <c r="J20">
-        <v>0.6147358491687678</v>
-      </c>
-      <c r="K20">
-        <v>3</v>
-      </c>
-      <c r="L20">
-        <v>1</v>
-      </c>
-      <c r="M20">
-        <v>1.940154666666667</v>
-      </c>
-      <c r="N20">
-        <v>5.820464</v>
-      </c>
-      <c r="O20">
-        <v>0.04123024092854888</v>
-      </c>
-      <c r="P20">
-        <v>0.04123024092854888</v>
-      </c>
-      <c r="Q20">
-        <v>12.23841738442844</v>
-      </c>
-      <c r="R20">
-        <v>110.145756459856</v>
-      </c>
-      <c r="S20">
-        <v>0.02534570716864438</v>
-      </c>
-      <c r="T20">
-        <v>0.02534570716864438</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20">
-      <c r="A21" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" t="s">
-        <v>24</v>
-      </c>
-      <c r="C21" t="s">
-        <v>25</v>
-      </c>
-      <c r="D21" t="s">
-        <v>21</v>
-      </c>
-      <c r="E21">
-        <v>3</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21">
-        <v>6.307959666666666</v>
-      </c>
-      <c r="H21">
-        <v>18.923879</v>
-      </c>
-      <c r="I21">
-        <v>0.6147358491687678</v>
-      </c>
-      <c r="J21">
-        <v>0.6147358491687678</v>
-      </c>
-      <c r="K21">
-        <v>3</v>
-      </c>
-      <c r="L21">
-        <v>1</v>
-      </c>
-      <c r="M21">
-        <v>1.784324666666667</v>
-      </c>
-      <c r="N21">
-        <v>5.352974</v>
-      </c>
-      <c r="O21">
-        <v>0.03791869646548077</v>
-      </c>
-      <c r="P21">
-        <v>0.03791869646548075</v>
-      </c>
-      <c r="Q21">
-        <v>11.25544802957178</v>
-      </c>
-      <c r="R21">
-        <v>101.299032266146</v>
-      </c>
-      <c r="S21">
-        <v>0.02330998207108007</v>
-      </c>
-      <c r="T21">
-        <v>0.02330998207108007</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20">
-      <c r="A22" t="s">
-        <v>23</v>
-      </c>
-      <c r="B22" t="s">
-        <v>24</v>
-      </c>
-      <c r="C22" t="s">
-        <v>25</v>
-      </c>
-      <c r="D22" t="s">
-        <v>22</v>
-      </c>
-      <c r="E22">
-        <v>3</v>
-      </c>
-      <c r="F22">
-        <v>1</v>
-      </c>
-      <c r="G22">
-        <v>6.307959666666666</v>
-      </c>
-      <c r="H22">
-        <v>18.923879</v>
-      </c>
-      <c r="I22">
-        <v>0.6147358491687678</v>
-      </c>
-      <c r="J22">
-        <v>0.6147358491687678</v>
-      </c>
-      <c r="K22">
-        <v>3</v>
-      </c>
-      <c r="L22">
-        <v>1</v>
-      </c>
-      <c r="M22">
-        <v>9.084400666666667</v>
-      </c>
-      <c r="N22">
-        <v>27.253202</v>
-      </c>
-      <c r="O22">
-        <v>0.1930526646216539</v>
-      </c>
-      <c r="P22">
-        <v>0.1930526646216539</v>
-      </c>
-      <c r="Q22">
-        <v>57.30403300117311</v>
-      </c>
-      <c r="R22">
-        <v>515.736297010558</v>
-      </c>
-      <c r="S22">
-        <v>0.1186763937204858</v>
-      </c>
-      <c r="T22">
-        <v>0.1186763937204857</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20">
-      <c r="A23" t="s">
-        <v>23</v>
-      </c>
-      <c r="B23" t="s">
-        <v>24</v>
-      </c>
-      <c r="C23" t="s">
-        <v>25</v>
-      </c>
-      <c r="D23" t="s">
-        <v>23</v>
-      </c>
-      <c r="E23">
-        <v>3</v>
-      </c>
-      <c r="F23">
-        <v>1</v>
-      </c>
-      <c r="G23">
-        <v>6.307959666666666</v>
-      </c>
-      <c r="H23">
-        <v>18.923879</v>
-      </c>
-      <c r="I23">
-        <v>0.6147358491687678</v>
-      </c>
-      <c r="J23">
-        <v>0.6147358491687678</v>
-      </c>
-      <c r="K23">
-        <v>3</v>
-      </c>
-      <c r="L23">
-        <v>1</v>
-      </c>
-      <c r="M23">
-        <v>29.348104</v>
-      </c>
-      <c r="N23">
-        <v>88.04431199999999</v>
-      </c>
-      <c r="O23">
-        <v>0.6236767714993731</v>
-      </c>
-      <c r="P23">
-        <v>0.6236767714993731</v>
-      </c>
-      <c r="Q23">
-        <v>185.1266563251386</v>
-      </c>
-      <c r="R23">
-        <v>1666.139906926248</v>
-      </c>
-      <c r="S23">
-        <v>0.3833964697345026</v>
-      </c>
-      <c r="T23">
-        <v>0.3833964697345026</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20">
-      <c r="A24" t="s">
-        <v>23</v>
-      </c>
-      <c r="B24" t="s">
-        <v>24</v>
-      </c>
-      <c r="C24" t="s">
-        <v>25</v>
-      </c>
-      <c r="D24" t="s">
-        <v>26</v>
-      </c>
-      <c r="E24">
-        <v>3</v>
-      </c>
-      <c r="F24">
-        <v>1</v>
-      </c>
-      <c r="G24">
-        <v>6.307959666666666</v>
-      </c>
-      <c r="H24">
-        <v>18.923879</v>
-      </c>
-      <c r="I24">
-        <v>0.6147358491687678</v>
-      </c>
-      <c r="J24">
-        <v>0.6147358491687678</v>
-      </c>
-      <c r="K24">
-        <v>3</v>
-      </c>
-      <c r="L24">
-        <v>1</v>
-      </c>
-      <c r="M24">
-        <v>1.013948333333333</v>
-      </c>
-      <c r="N24">
-        <v>3.041845</v>
-      </c>
-      <c r="O24">
-        <v>0.02154742340426842</v>
-      </c>
-      <c r="P24">
-        <v>0.02154742340426842</v>
-      </c>
-      <c r="Q24">
-        <v>6.395945190750556</v>
-      </c>
-      <c r="R24">
-        <v>57.56350671675501</v>
-      </c>
-      <c r="S24">
-        <v>0.01324597362382193</v>
-      </c>
-      <c r="T24">
-        <v>0.01324597362382193</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20">
-      <c r="A25" t="s">
-        <v>23</v>
-      </c>
-      <c r="B25" t="s">
-        <v>24</v>
-      </c>
-      <c r="C25" t="s">
-        <v>25</v>
-      </c>
-      <c r="D25" t="s">
-        <v>27</v>
-      </c>
-      <c r="E25">
-        <v>3</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25">
-        <v>6.307959666666666</v>
-      </c>
-      <c r="H25">
-        <v>18.923879</v>
-      </c>
-      <c r="I25">
-        <v>0.6147358491687678</v>
-      </c>
-      <c r="J25">
-        <v>0.6147358491687678</v>
-      </c>
-      <c r="K25">
-        <v>3</v>
-      </c>
-      <c r="L25">
-        <v>1</v>
-      </c>
-      <c r="M25">
-        <v>3.885660666666666</v>
-      </c>
-      <c r="N25">
-        <v>11.656982</v>
-      </c>
-      <c r="O25">
-        <v>0.08257420308067495</v>
-      </c>
-      <c r="P25">
-        <v>0.08257420308067492</v>
-      </c>
-      <c r="Q25">
-        <v>24.51059076368644</v>
-      </c>
-      <c r="R25">
-        <v>220.595316873178</v>
-      </c>
-      <c r="S25">
-        <v>0.050761322850233</v>
-      </c>
-      <c r="T25">
-        <v>0.05076132285023298</v>
+        <v>0.01146513510066033</v>
       </c>
     </row>
   </sheetData>
